--- a/results/04-2024/contributions-comparison-04-2024.xlsx
+++ b/results/04-2024/contributions-comparison-04-2024.xlsx
@@ -1006,10 +1006,10 @@
         <v>-0.167</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.7672</v>
+        <v>-0.106</v>
       </c>
       <c r="X9" t="n">
-        <v>-29.7431</v>
+        <v>-31.4048</v>
       </c>
     </row>
     <row r="10">
@@ -1112,10 +1112,10 @@
         <v>-0.0354</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.7389</v>
+        <v>-0.1141</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1967</v>
+        <v>-0.4273</v>
       </c>
     </row>
     <row r="12">
@@ -1748,10 +1748,10 @@
         <v>-0.1095</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.3853</v>
+        <v>-0.0854</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.2757</v>
+        <v>-6.3361</v>
       </c>
     </row>
     <row r="24">
@@ -1960,10 +1960,10 @@
         <v>-0.0308</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0769</v>
+        <v>-0.0116</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0631</v>
+        <v>-0.0725</v>
       </c>
     </row>
     <row r="28">
@@ -2172,10 +2172,10 @@
         <v>-0.3717</v>
       </c>
       <c r="W31" t="n">
-        <v>-50.5882</v>
+        <v>-0.1076</v>
       </c>
       <c r="X31" t="n">
-        <v>-26.5064</v>
+        <v>-70.6457</v>
       </c>
     </row>
     <row r="32">
@@ -2384,10 +2384,10 @@
         <v>-0.0876</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.654</v>
+        <v>0.0072</v>
       </c>
       <c r="X35" t="n">
-        <v>-4.6533</v>
+        <v>-6.3151</v>
       </c>
     </row>
     <row r="36">
@@ -2808,10 +2808,10 @@
         <v>0.0161</v>
       </c>
       <c r="W43" t="n">
-        <v>-41.5638</v>
+        <v>0.1944</v>
       </c>
       <c r="X43" t="n">
-        <v>4.6533</v>
+        <v>-37.1192</v>
       </c>
     </row>
     <row r="44">
@@ -3550,10 +3550,10 @@
         <v>0.0024</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.0699</v>
+        <v>0.0013</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.06</v>
+        <v>-0.0712</v>
       </c>
     </row>
     <row r="58">
@@ -3974,10 +3974,10 @@
         <v>-0.0005</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1759</v>
+        <v>1.8371</v>
       </c>
       <c r="X65" t="n">
-        <v>-0.2917</v>
+        <v>-1.9534</v>
       </c>
     </row>
     <row r="66">
@@ -4080,10 +4080,10 @@
         <v>0.0004</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0032</v>
+        <v>0.628</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.0008</v>
+        <v>-0.6247</v>
       </c>
     </row>
     <row r="68">
@@ -4716,10 +4716,10 @@
         <v>-0.0045</v>
       </c>
       <c r="W79" t="n">
-        <v>-0.0806</v>
+        <v>6.2193</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.0786</v>
+        <v>-0.139</v>
       </c>
     </row>
     <row r="80">
@@ -4928,10 +4928,10 @@
         <v>-0.001</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0009</v>
+        <v>0.0662</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0007</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="84">
@@ -5140,10 +5140,10 @@
         <v>-0.0281</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1762</v>
+        <v>50.6568</v>
       </c>
       <c r="X87" t="n">
-        <v>-0.2276</v>
+        <v>-44.3669</v>
       </c>
     </row>
     <row r="88">
@@ -5352,10 +5352,10 @@
         <v>-0.0002</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0426</v>
+        <v>1.7038</v>
       </c>
       <c r="X91" t="n">
-        <v>-0.1795</v>
+        <v>-1.8413</v>
       </c>
     </row>
     <row r="92">
@@ -5776,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>0.1321</v>
+        <v>41.8903</v>
       </c>
       <c r="X99" t="n">
-        <v>0.1795</v>
+        <v>-41.593</v>
       </c>
     </row>
     <row r="100">
@@ -6518,10 +6518,10 @@
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0006</v>
+        <v>0.0719</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0003</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="114">

--- a/results/04-2024/contributions-comparison-04-2024.xlsx
+++ b/results/04-2024/contributions-comparison-04-2024.xlsx
@@ -1736,22 +1736,22 @@
         <v>0.0699</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0612</v>
+        <v>-0.0599</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.056</v>
+        <v>-0.0547</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0552</v>
+        <v>-0.054</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1095</v>
+        <v>-0.1083</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.0854</v>
+        <v>-0.0687</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.3361</v>
+        <v>-6.3375</v>
       </c>
     </row>
     <row r="24">
@@ -2160,22 +2160,22 @@
         <v>-0.119</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6875</v>
+        <v>-0.6862</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.8208</v>
+        <v>-0.8195</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5654</v>
+        <v>-0.5642</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3717</v>
+        <v>-0.3704</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.1076</v>
+        <v>-0.0909</v>
       </c>
       <c r="X31" t="n">
-        <v>-70.6457</v>
+        <v>-70.6471</v>
       </c>
     </row>
     <row r="32">
@@ -4704,22 +4704,22 @@
         <v>0.0997</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0049</v>
+        <v>-0.0036</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.0047</v>
+        <v>-0.0034</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.0046</v>
+        <v>-0.0034</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.0045</v>
+        <v>-0.0033</v>
       </c>
       <c r="W79" t="n">
-        <v>6.2193</v>
+        <v>6.236</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.139</v>
+        <v>-0.1405</v>
       </c>
     </row>
     <row r="80">
@@ -5128,22 +5128,22 @@
         <v>0.143</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1216</v>
+        <v>0.1229</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0048</v>
+        <v>0.0061</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0325</v>
+        <v>-0.0312</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0281</v>
+        <v>-0.0269</v>
       </c>
       <c r="W87" t="n">
-        <v>50.6568</v>
+        <v>50.6734</v>
       </c>
       <c r="X87" t="n">
-        <v>-44.3669</v>
+        <v>-44.3683</v>
       </c>
     </row>
     <row r="88">

--- a/results/04-2024/contributions-comparison-04-2024.xlsx
+++ b/results/04-2024/contributions-comparison-04-2024.xlsx
@@ -629,7 +629,7 @@
         <v>0.0064</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0045</v>
+        <v>0.0044</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -664,7 +664,7 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>0.0065</v>
+        <v>0.0084</v>
       </c>
       <c r="P3" t="n">
         <v>0.0067</v>
@@ -770,7 +770,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>313.446</v>
+        <v>310.9897</v>
       </c>
       <c r="P5" t="n">
         <v>315.355</v>
@@ -879,31 +879,31 @@
         <v>-0.0074</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0185</v>
+        <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0698</v>
+        <v>-0.0669</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0303</v>
+        <v>-0.029</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0293</v>
+        <v>-0.028</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0276</v>
+        <v>-0.0264</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0268</v>
+        <v>-0.0257</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.004</v>
+        <v>-0.0038</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0028</v>
+        <v>-0.0026</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0023</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>-0.0421</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1515</v>
+        <v>0.1538</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -982,34 +982,34 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>-0.1397</v>
+        <v>-0.2668</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3756</v>
+        <v>-0.3599</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0703</v>
+        <v>-0.0673</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0875</v>
+        <v>-0.0838</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4406</v>
+        <v>-0.4221</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3113</v>
+        <v>-0.2982</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1371</v>
+        <v>-0.1313</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.1743</v>
+        <v>-0.167</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1107</v>
+        <v>-0.106</v>
       </c>
       <c r="X9" t="n">
-        <v>-32.7795</v>
+        <v>-31.4048</v>
       </c>
     </row>
     <row r="10">
@@ -1053,7 +1053,7 @@
         <v>0.3088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4869</v>
+        <v>0.2796</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -1088,34 +1088,34 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.1582</v>
+        <v>0.1561</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1284</v>
+        <v>-0.1203</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2514</v>
+        <v>-0.2381</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2362</v>
+        <v>-0.2235</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2991</v>
+        <v>-0.2839</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2319</v>
+        <v>-0.2195</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1809</v>
+        <v>-0.1707</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0397</v>
+        <v>-0.0354</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1218</v>
+        <v>-0.1141</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.4486</v>
+        <v>-0.4273</v>
       </c>
     </row>
     <row r="12">
@@ -1159,7 +1159,7 @@
         <v>-0.2751</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1625</v>
+        <v>-0.1622</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -1194,34 +1194,34 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>-0.2067</v>
+        <v>-0.2224</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.175</v>
+        <v>-0.1833</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0571</v>
+        <v>0.0393</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0151</v>
+        <v>-0.0011</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0575</v>
+        <v>0.0551</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0467</v>
+        <v>0.0448</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0335</v>
+        <v>0.0321</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0505</v>
+        <v>0.0484</v>
       </c>
       <c r="W13" t="n">
-        <v>0.096</v>
+        <v>0.092</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.2441</v>
+        <v>-5.0242</v>
       </c>
     </row>
     <row r="14">
@@ -1265,7 +1265,7 @@
         <v>0.3669</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3655</v>
+        <v>0.3659</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -1300,34 +1300,34 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0.1789</v>
+        <v>0.2014</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0917</v>
+        <v>0.11</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2734</v>
+        <v>0.273</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2064</v>
+        <v>0.2087</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1509</v>
+        <v>-0.1338</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1694</v>
+        <v>-0.1517</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1405</v>
+        <v>-0.1241</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.1332</v>
+        <v>-0.1174</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0704</v>
+        <v>-0.0675</v>
       </c>
       <c r="X15" t="n">
-        <v>7.7895</v>
+        <v>7.4628</v>
       </c>
     </row>
     <row r="16">
@@ -1409,31 +1409,31 @@
         <v>-0.0373</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0373</v>
+        <v>-0.0357</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0359</v>
+        <v>-0.0344</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0234</v>
+        <v>-0.0224</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0159</v>
+        <v>-0.0152</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0144</v>
+        <v>-0.0138</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0145</v>
+        <v>-0.0139</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0135</v>
+        <v>-0.0129</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0149</v>
+        <v>-0.0143</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0102</v>
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="18">
@@ -1512,34 +1512,34 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>-0.0619</v>
+        <v>-0.062</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.051</v>
+        <v>-0.0488</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0451</v>
+        <v>-0.0433</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0269</v>
+        <v>-0.0258</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0107</v>
+        <v>-0.0103</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0102</v>
+        <v>-0.0098</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0086</v>
+        <v>-0.0083</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0078</v>
+        <v>-0.0075</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.0072</v>
+        <v>-0.0069</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0066</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="20">
@@ -1583,7 +1583,7 @@
         <v>0.0098</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01</v>
+        <v>0.0098</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -1618,7 +1618,7 @@
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>0.0073</v>
+        <v>0.0101</v>
       </c>
       <c r="P21" t="n">
         <v>0.0078</v>
@@ -1689,7 +1689,7 @@
         <v>0.0114</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.1485</v>
+        <v>-0.1481</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
@@ -1724,34 +1724,34 @@
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>-0.0462</v>
+        <v>-0.0659</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0456</v>
+        <v>0.0242</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0891</v>
+        <v>0.0661</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0932</v>
+        <v>0.0699</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0625</v>
+        <v>-0.0599</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0571</v>
+        <v>-0.0547</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0564</v>
+        <v>-0.054</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.113</v>
+        <v>-0.1083</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.0717</v>
+        <v>-0.0687</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.615</v>
+        <v>-6.3375</v>
       </c>
     </row>
     <row r="24">
@@ -1830,22 +1830,22 @@
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>-0.1019</v>
+        <v>-0.1018</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0973</v>
+        <v>-0.0932</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0573</v>
+        <v>-0.0549</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0311</v>
+        <v>-0.0298</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0308</v>
+        <v>-0.0295</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0242</v>
+        <v>-0.0232</v>
       </c>
       <c r="U25" t="n">
         <v>0.0002</v>
@@ -1857,7 +1857,7 @@
         <v>-0.0001</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.0074</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="26">
@@ -1901,7 +1901,7 @@
         <v>-0.3432</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.1407</v>
+        <v>-0.1408</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
@@ -1936,34 +1936,34 @@
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>-0.1051</v>
+        <v>-0.1042</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3045</v>
+        <v>-0.292</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2741</v>
+        <v>-0.2628</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1105</v>
+        <v>-0.106</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0604</v>
+        <v>-0.0581</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0966</v>
+        <v>-0.0926</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0716</v>
+        <v>-0.0687</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.032</v>
+        <v>-0.0308</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0119</v>
+        <v>-0.0116</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0755</v>
+        <v>-0.0725</v>
       </c>
     </row>
     <row r="28">
@@ -2042,31 +2042,31 @@
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>-0.0027</v>
+        <v>-0.0014</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.0005</v>
+        <v>-0.0007</v>
       </c>
       <c r="Q29" t="n">
         <v>-0.0003</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4702</v>
+        <v>0.2312</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
@@ -2148,34 +2148,34 @@
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.1079</v>
+        <v>-0.2545</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.7326</v>
+        <v>-0.6738</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.3602</v>
+        <v>-0.363</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0647</v>
+        <v>-0.119</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.797</v>
+        <v>-0.6862</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.8765</v>
+        <v>-0.8195</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.6097</v>
+        <v>-0.5642</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.4352</v>
+        <v>-0.3704</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.0983</v>
+        <v>-0.0909</v>
       </c>
       <c r="X31" t="n">
-        <v>-73.7432</v>
+        <v>-70.6471</v>
       </c>
     </row>
     <row r="32">
@@ -2219,7 +2219,7 @@
         <v>27610.1</v>
       </c>
       <c r="N32" t="n">
-        <v>27944.6</v>
+        <v>27957</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
@@ -2254,34 +2254,34 @@
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>27098.3</v>
+        <v>28284.5</v>
       </c>
       <c r="P33" t="n">
-        <v>27422.1</v>
+        <v>28622.474</v>
       </c>
       <c r="Q33" t="n">
-        <v>27752.5</v>
+        <v>28967.3369</v>
       </c>
       <c r="R33" t="n">
-        <v>28094.6</v>
+        <v>29324.412</v>
       </c>
       <c r="S33" t="n">
-        <v>28443.2</v>
+        <v>29688.2716</v>
       </c>
       <c r="T33" t="n">
-        <v>28783.5</v>
+        <v>30043.4679</v>
       </c>
       <c r="U33" t="n">
-        <v>29119</v>
+        <v>30393.654</v>
       </c>
       <c r="V33" t="n">
-        <v>29442.5</v>
+        <v>30731.3149</v>
       </c>
       <c r="W33" t="n">
-        <v>29766.2</v>
+        <v>31069.1846</v>
       </c>
       <c r="X33" t="n">
-        <v>30094.6</v>
+        <v>31411.9599</v>
       </c>
     </row>
     <row r="34">
@@ -2325,7 +2325,7 @@
         <v>-0.3502</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1484</v>
+        <v>0.1455</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -2360,34 +2360,34 @@
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>-0.0895</v>
+        <v>-0.1094</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.2198</v>
+        <v>-0.2106</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0112</v>
+        <v>-0.0107</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0159</v>
+        <v>0.0152</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3182</v>
+        <v>-0.3049</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.198</v>
+        <v>-0.1896</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0381</v>
+        <v>-0.0365</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0914</v>
+        <v>-0.0876</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0075</v>
+        <v>0.0072</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.5915</v>
+        <v>-6.3151</v>
       </c>
     </row>
     <row r="36">
@@ -2466,7 +2466,7 @@
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>0.0041</v>
+        <v>0.0055</v>
       </c>
       <c r="P37" t="n">
         <v>0.0041</v>
@@ -2575,28 +2575,28 @@
         <v>-0.1124</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.1096</v>
+        <v>-0.105</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1064</v>
+        <v>-0.1019</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.1042</v>
+        <v>-0.0998</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.1009</v>
+        <v>-0.0967</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0978</v>
+        <v>-0.0937</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.0011</v>
+        <v>-0.001</v>
       </c>
       <c r="V39" t="n">
         <v>-0.001</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0.6465</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1846</v>
+        <v>0.2484</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
@@ -2784,34 +2784,34 @@
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.2648</v>
+        <v>0.0936</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1625</v>
+        <v>0.1557</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0456</v>
+        <v>-0.0437</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.0653</v>
+        <v>-0.0625</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2428</v>
+        <v>0.2326</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1264</v>
+        <v>0.1211</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0305</v>
+        <v>-0.0292</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0168</v>
+        <v>0.0161</v>
       </c>
       <c r="W43" t="n">
-        <v>0.2029</v>
+        <v>0.1944</v>
       </c>
       <c r="X43" t="n">
-        <v>-38.744</v>
+        <v>-37.1192</v>
       </c>
     </row>
     <row r="44">
@@ -2855,7 +2855,7 @@
         <v>-0.0209</v>
       </c>
       <c r="N44" t="n">
-        <v>0.053</v>
+        <v>-0.027</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -2890,34 +2890,34 @@
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>-0.0211</v>
+        <v>-0.02</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.0179</v>
+        <v>-0.016</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0099</v>
+        <v>-0.0085</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0076</v>
+        <v>0.0083</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0224</v>
+        <v>0.0225</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0012</v>
+        <v>0.0022</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0013</v>
+        <v>0.0023</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0067</v>
+        <v>0.0074</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0113</v>
+        <v>0.0118</v>
       </c>
       <c r="X45" t="n">
-        <v>0.075</v>
+        <v>0.0729</v>
       </c>
     </row>
     <row r="46">
@@ -2961,7 +2961,7 @@
         <v>0.219</v>
       </c>
       <c r="N46" t="n">
-        <v>0.017</v>
+        <v>0.0574</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
@@ -2996,34 +2996,34 @@
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.1117</v>
+        <v>0.1087</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0319</v>
+        <v>0.0277</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0257</v>
+        <v>-0.0275</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1447</v>
+        <v>0.0972</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0062</v>
+        <v>-0.006</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0206</v>
+        <v>-0.0198</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0159</v>
+        <v>-0.0153</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.008</v>
+        <v>-0.0077</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0049</v>
+        <v>0.0047</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.9329</v>
+        <v>-0.8938</v>
       </c>
     </row>
     <row r="48">
@@ -3067,7 +3067,7 @@
         <v>0.1954</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1982</v>
+        <v>0.1388</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
@@ -3102,34 +3102,34 @@
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.2255</v>
+        <v>0.2383</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1977</v>
+        <v>0.2312</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1471</v>
+        <v>0.1473</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1092</v>
+        <v>0.1108</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0655</v>
+        <v>0.0689</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.012</v>
+        <v>-0.0054</v>
       </c>
       <c r="U49" t="n">
-        <v>0.017</v>
+        <v>0.0223</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.0023</v>
+        <v>0.0307</v>
       </c>
       <c r="W49" t="n">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="X49" t="n">
-        <v>3.9993</v>
+        <v>3.8316</v>
       </c>
     </row>
     <row r="50">
@@ -3173,7 +3173,7 @@
         <v>0.0141</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
@@ -3208,7 +3208,7 @@
       <c r="M51"/>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>0.0077</v>
+        <v>0.009</v>
       </c>
       <c r="P51" t="n">
         <v>0.0071</v>
@@ -3314,7 +3314,7 @@
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>196.2983</v>
+        <v>177.9</v>
       </c>
       <c r="P53" t="n">
         <v>199.5248</v>
@@ -3420,25 +3420,25 @@
       <c r="M55"/>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>-0.0011</v>
+        <v>-0.0006</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.0027</v>
+        <v>-0.0026</v>
       </c>
       <c r="Q55" t="n">
         <v>-0.0005</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.0006</v>
+        <v>-0.0007</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.0014</v>
+        <v>-0.0013</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
       <c r="V55" t="n">
         <v>-0.0003</v>
@@ -3526,34 +3526,34 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>-0.0012</v>
+        <v>-0.0027</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0046</v>
+        <v>0.0044</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0064</v>
+        <v>0.0061</v>
       </c>
       <c r="R57" t="n">
-        <v>0.006</v>
+        <v>0.0057</v>
       </c>
       <c r="S57" t="n">
         <v>0.0062</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0052</v>
+        <v>0.0049</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.0743</v>
+        <v>-0.0712</v>
       </c>
     </row>
     <row r="58">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -3632,7 +3632,7 @@
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>-0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>-2.4563</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3847,31 +3847,31 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.0008</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.0029</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.0013</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.0012</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.0011</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.0011</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.0023</v>
+        <v>0</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -3950,34 +3950,34 @@
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.1163</v>
+        <v>-0.0109</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0867</v>
+        <v>0.1024</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0033</v>
+        <v>-0.0004</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.0042</v>
+        <v>-0.0006</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.0191</v>
+        <v>-0.0006</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.0137</v>
+        <v>-0.0006</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.0064</v>
+        <v>-0.0006</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.0079</v>
+        <v>-0.0005</v>
       </c>
       <c r="W65" t="n">
-        <v>1.8324</v>
+        <v>1.8371</v>
       </c>
       <c r="X65" t="n">
-        <v>-3.3281</v>
+        <v>-1.9534</v>
       </c>
     </row>
     <row r="66">
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2073</v>
+        <v>0</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -4056,34 +4056,34 @@
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>-0.0009</v>
+        <v>-0.0031</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0077</v>
+        <v>0.0005</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.0128</v>
+        <v>0.0005</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.0121</v>
+        <v>0.0005</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.0147</v>
+        <v>0.0005</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.0119</v>
+        <v>0.0005</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.0097</v>
+        <v>0.0005</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.0038</v>
+        <v>0.0004</v>
       </c>
       <c r="W67" t="n">
-        <v>0.6203</v>
+        <v>0.628</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.6461</v>
+        <v>-0.6247</v>
       </c>
     </row>
     <row r="68">
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -4162,34 +4162,34 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>0.0259</v>
+        <v>0.0102</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0443</v>
+        <v>0.036</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.077</v>
+        <v>0.0592</v>
       </c>
       <c r="R69" t="n">
-        <v>0.072</v>
+        <v>0.0558</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0452</v>
+        <v>0.0428</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0169</v>
+        <v>0.0149</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.009</v>
+        <v>-0.0104</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.0054</v>
+        <v>-0.0075</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0258</v>
+        <v>0.0218</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.2547</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="70">
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
@@ -4268,34 +4268,34 @@
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>-0.0663</v>
+        <v>-0.0438</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.1156</v>
+        <v>-0.0973</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.0739</v>
+        <v>-0.0743</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0489</v>
+        <v>-0.0467</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.0642</v>
+        <v>-0.0472</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.0641</v>
+        <v>-0.0464</v>
       </c>
       <c r="U71" t="n">
-        <v>-0.0614</v>
+        <v>-0.045</v>
       </c>
       <c r="V71" t="n">
-        <v>-0.0601</v>
+        <v>-0.0443</v>
       </c>
       <c r="W71" t="n">
-        <v>-0.067</v>
+        <v>-0.064</v>
       </c>
       <c r="X71" t="n">
-        <v>0.3982</v>
+        <v>0.0715</v>
       </c>
     </row>
     <row r="72">
@@ -4377,31 +4377,31 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.0016</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.0015</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.0007</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.0006</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.0006</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>-0.0006</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>-0.0006</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4483,31 +4483,31 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.0021</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.0019</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.0011</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
@@ -4586,7 +4586,7 @@
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>0.0014</v>
+        <v>0.0042</v>
       </c>
       <c r="P77" t="n">
         <v>0.0015</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
@@ -4692,34 +4692,34 @@
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79" t="n">
-        <v>0.1267</v>
+        <v>0.1071</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1259</v>
+        <v>0.1045</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.1251</v>
+        <v>0.1021</v>
       </c>
       <c r="R79" t="n">
-        <v>0.123</v>
+        <v>0.0997</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0062</v>
+        <v>-0.0036</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.0058</v>
+        <v>-0.0034</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.0057</v>
+        <v>-0.0034</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.0081</v>
+        <v>-0.0033</v>
       </c>
       <c r="W79" t="n">
-        <v>6.233</v>
+        <v>6.236</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.4179</v>
+        <v>-0.1405</v>
       </c>
     </row>
     <row r="80">
@@ -4801,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.0024</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.0013</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.0013</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
@@ -4904,34 +4904,34 @@
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="P83" t="n">
         <v>-0.0015</v>
       </c>
-      <c r="P83" t="n">
-        <v>-0.0139</v>
-      </c>
       <c r="Q83" t="n">
-        <v>-0.0126</v>
+        <v>-0.0013</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.0057</v>
+        <v>-0.0012</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.0034</v>
+        <v>-0.0011</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.0049</v>
+        <v>-0.001</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.0038</v>
+        <v>-0.001</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.0022</v>
+        <v>-0.001</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0659</v>
+        <v>0.0662</v>
       </c>
       <c r="X83" t="n">
-        <v>-0.0118</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="84">
@@ -5010,31 +5010,31 @@
       <c r="M85"/>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>-0.0013</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
@@ -5116,34 +5116,34 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>0.3807</v>
+        <v>0.0184</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.0606</v>
+        <v>-0.0019</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1255</v>
+        <v>0.1226</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1973</v>
+        <v>0.143</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0121</v>
+        <v>0.1229</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.0508</v>
+        <v>0.0061</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0768</v>
+        <v>-0.0312</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0917</v>
+        <v>-0.0269</v>
       </c>
       <c r="W87" t="n">
-        <v>50.6661</v>
+        <v>50.6734</v>
       </c>
       <c r="X87" t="n">
-        <v>-47.4644</v>
+        <v>-44.3683</v>
       </c>
     </row>
     <row r="88">
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
@@ -5222,34 +5222,34 @@
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>-1178.4244</v>
+        <v>7.7756</v>
       </c>
       <c r="P89" t="n">
-        <v>-1192.5055</v>
+        <v>7.8685</v>
       </c>
       <c r="Q89" t="n">
-        <v>-1206.8736</v>
+        <v>7.9633</v>
       </c>
       <c r="R89" t="n">
-        <v>-1221.7505</v>
+        <v>8.0615</v>
       </c>
       <c r="S89" t="n">
-        <v>-1236.9101</v>
+        <v>8.1615</v>
       </c>
       <c r="T89" t="n">
-        <v>-1251.7088</v>
+        <v>8.2591</v>
       </c>
       <c r="U89" t="n">
-        <v>-1266.2987</v>
+        <v>8.3554</v>
       </c>
       <c r="V89" t="n">
-        <v>-1280.3667</v>
+        <v>8.4482</v>
       </c>
       <c r="W89" t="n">
-        <v>-1294.4435</v>
+        <v>8.5411</v>
       </c>
       <c r="X89" t="n">
-        <v>-1308.7246</v>
+        <v>8.6353</v>
       </c>
     </row>
     <row r="90">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
       <c r="O90"/>
       <c r="P90"/>
@@ -5328,34 +5328,34 @@
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>0.0295</v>
+        <v>0.0097</v>
       </c>
       <c r="P91" t="n">
-        <v>0.1319</v>
+        <v>0.1411</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.0006</v>
+        <v>-0.0001</v>
       </c>
       <c r="R91" t="n">
-        <v>0.0005</v>
+        <v>-0.0001</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.0135</v>
+        <v>-0.0001</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.0084</v>
+        <v>-0.0001</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.0018</v>
+        <v>-0.0002</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.004</v>
+        <v>-0.0002</v>
       </c>
       <c r="W91" t="n">
-        <v>1.7041</v>
+        <v>1.7038</v>
       </c>
       <c r="X91" t="n">
-        <v>-2.1177</v>
+        <v>-1.8413</v>
       </c>
     </row>
     <row r="92">
@@ -5434,7 +5434,7 @@
       <c r="M93"/>
       <c r="N93"/>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5543,19 +5543,19 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.0046</v>
+        <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.0044</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0043</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.0042</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.0041</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.0638</v>
+        <v>0</v>
       </c>
       <c r="O98"/>
       <c r="P98"/>
@@ -5752,34 +5752,34 @@
       <c r="M99"/>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>0.1652</v>
+        <v>-0.006</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.1987</v>
+        <v>-0.2055</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.0019</v>
+        <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.0027</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0101</v>
+        <v>-0.0001</v>
       </c>
       <c r="T99" t="n">
-        <v>0.0053</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>-0.0013</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>41.8988</v>
+        <v>41.8903</v>
       </c>
       <c r="X99" t="n">
-        <v>-43.2179</v>
+        <v>-41.593</v>
       </c>
     </row>
     <row r="100">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O100"/>
       <c r="P100"/>
@@ -5858,34 +5858,34 @@
       <c r="M101"/>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>-0.0009</v>
+        <v>0.0002</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.0016</v>
+        <v>0.0002</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.0013</v>
+        <v>0.0002</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.0006</v>
+        <v>0.0002</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="V101" t="n">
-        <v>-0.0006</v>
+        <v>0.0002</v>
       </c>
       <c r="W101" t="n">
-        <v>-0.0007</v>
+        <v>-0.0002</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0019</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="102">
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.0405</v>
+        <v>0</v>
       </c>
       <c r="O102"/>
       <c r="P102"/>
@@ -5964,34 +5964,34 @@
       <c r="M103"/>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>-0.039</v>
+        <v>-0.0419</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0047</v>
+        <v>-0.0089</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0054</v>
+        <v>0.0036</v>
       </c>
       <c r="R103" t="n">
-        <v>0.05</v>
+        <v>0.0025</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0412</v>
+        <v>0.0415</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0081</v>
+        <v>0.009</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.0046</v>
+        <v>-0.0039</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.0032</v>
+        <v>-0.0029</v>
       </c>
       <c r="W103" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="X103" t="n">
         <v>0.003</v>
-      </c>
-      <c r="X103" t="n">
-        <v>-0.0361</v>
       </c>
     </row>
     <row r="104">
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0594</v>
+        <v>0</v>
       </c>
       <c r="O104"/>
       <c r="P104"/>
@@ -6070,34 +6070,34 @@
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105" t="n">
-        <v>0.0562</v>
+        <v>0.069</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0347</v>
+        <v>0.0682</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.0336</v>
+        <v>0.0338</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0318</v>
+        <v>0.0334</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0297</v>
+        <v>0.0331</v>
       </c>
       <c r="T105" t="n">
-        <v>0.0262</v>
+        <v>0.0328</v>
       </c>
       <c r="U105" t="n">
-        <v>0.0271</v>
+        <v>0.0324</v>
       </c>
       <c r="V105" t="n">
-        <v>-0.0009</v>
+        <v>0.0321</v>
       </c>
       <c r="W105" t="n">
-        <v>-0.0207</v>
+        <v>-0.0197</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0875</v>
+        <v>-0.0802</v>
       </c>
     </row>
     <row r="106">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="O106"/>
       <c r="P106"/>
@@ -6176,7 +6176,7 @@
       <c r="M107"/>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>0.0003</v>
+        <v>0.0015</v>
       </c>
       <c r="P107" t="n">
         <v>0.0015</v>
@@ -6282,7 +6282,7 @@
       <c r="M109"/>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>-18.3983</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
       <c r="M111"/>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="P111" t="n">
         <v>-0.0001</v>
@@ -6403,16 +6403,16 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
         <v>-0.0001</v>
-      </c>
-      <c r="U111" t="n">
-        <v>0</v>
-      </c>
-      <c r="V111" t="n">
-        <v>0</v>
-      </c>
-      <c r="W111" t="n">
-        <v>0</v>
       </c>
       <c r="X111" t="n">
         <v>0</v>
@@ -6494,34 +6494,34 @@
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="P113" t="n">
         <v>0.0001</v>
       </c>
-      <c r="P113" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="Q113" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
         <v>0.0003</v>
       </c>
       <c r="T113" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="U113" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0717</v>
+        <v>0.0719</v>
       </c>
       <c r="X113" t="n">
-        <v>-0.014</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="114">

--- a/results/04-2024/contributions-comparison-04-2024.xlsx
+++ b/results/04-2024/contributions-comparison-04-2024.xlsx
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0052</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="4">
@@ -773,31 +773,31 @@
         <v>310.9897</v>
       </c>
       <c r="P5" t="n">
-        <v>315.355</v>
+        <v>311.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>317.119</v>
+        <v>313.653</v>
       </c>
       <c r="R5" t="n">
-        <v>318.802</v>
+        <v>315.562</v>
       </c>
       <c r="S5" t="n">
-        <v>320.534</v>
+        <v>317.539</v>
       </c>
       <c r="T5" t="n">
-        <v>322.229</v>
+        <v>319.487</v>
       </c>
       <c r="U5" t="n">
-        <v>323.907</v>
+        <v>321.422</v>
       </c>
       <c r="V5" t="n">
-        <v>325.59</v>
+        <v>323.328</v>
       </c>
       <c r="W5" t="n">
-        <v>327.231</v>
+        <v>325.189</v>
       </c>
       <c r="X5" t="n">
-        <v>328.868</v>
+        <v>327.004</v>
       </c>
     </row>
     <row r="6">
@@ -882,25 +882,25 @@
         <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0669</v>
+        <v>-0.0671</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.029</v>
+        <v>-0.0292</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.028</v>
+        <v>-0.0283</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0264</v>
+        <v>-0.0267</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0257</v>
+        <v>-0.026</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0038</v>
+        <v>-0.0039</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0026</v>
+        <v>-0.0027</v>
       </c>
       <c r="X7" t="n">
         <v>-0.0022</v>
@@ -985,31 +985,31 @@
         <v>-0.2668</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3599</v>
+        <v>-0.5631</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0673</v>
+        <v>-0.2754</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0838</v>
+        <v>-0.2921</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4221</v>
+        <v>-0.6339</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.2982</v>
+        <v>-0.5056</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1313</v>
+        <v>-0.332</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.167</v>
+        <v>-0.3637</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.106</v>
+        <v>-0.296</v>
       </c>
       <c r="X9" t="n">
-        <v>-31.4048</v>
+        <v>-32.0709</v>
       </c>
     </row>
     <row r="10">
@@ -1091,31 +1091,31 @@
         <v>0.1561</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1203</v>
+        <v>-0.1297</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2381</v>
+        <v>-0.247</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2235</v>
+        <v>-0.2305</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2839</v>
+        <v>-0.2896</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2195</v>
+        <v>-0.2222</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1707</v>
+        <v>-0.1704</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0354</v>
+        <v>-0.0312</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1141</v>
+        <v>-0.1097</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.4273</v>
+        <v>-0.4258</v>
       </c>
     </row>
     <row r="12">
@@ -1197,31 +1197,31 @@
         <v>-0.2224</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1833</v>
+        <v>-0.214</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0393</v>
+        <v>-0.0229</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0011</v>
+        <v>-0.0949</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0551</v>
+        <v>-0.0694</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0448</v>
+        <v>-0.0808</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0321</v>
+        <v>-0.0931</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0484</v>
+        <v>-0.0754</v>
       </c>
       <c r="W13" t="n">
-        <v>0.092</v>
+        <v>-0.0293</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.0242</v>
+        <v>-5.2202</v>
       </c>
     </row>
     <row r="14">
@@ -1303,31 +1303,31 @@
         <v>0.2014</v>
       </c>
       <c r="P15" t="n">
-        <v>0.11</v>
+        <v>0.1562</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.273</v>
+        <v>0.3677</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2087</v>
+        <v>0.328</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1338</v>
+        <v>0.006</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1517</v>
+        <v>0.0105</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1241</v>
+        <v>0.06</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.1174</v>
+        <v>0.0872</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0675</v>
+        <v>0.1572</v>
       </c>
       <c r="X15" t="n">
-        <v>7.4628</v>
+        <v>7.7984</v>
       </c>
     </row>
     <row r="16">
@@ -1409,31 +1409,31 @@
         <v>-0.0373</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0357</v>
+        <v>-0.0358</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0344</v>
+        <v>-0.0345</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0224</v>
+        <v>-0.0226</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0152</v>
+        <v>-0.0154</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0138</v>
+        <v>-0.014</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0139</v>
+        <v>-0.0141</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0129</v>
+        <v>-0.0132</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0143</v>
+        <v>-0.0145</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0097</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18">
@@ -1515,31 +1515,31 @@
         <v>-0.062</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0488</v>
+        <v>-0.0489</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0433</v>
+        <v>-0.0436</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0258</v>
+        <v>-0.0261</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0103</v>
+        <v>-0.0106</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0098</v>
+        <v>-0.0101</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0083</v>
+        <v>-0.0086</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0075</v>
+        <v>-0.0078</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.0069</v>
+        <v>-0.0072</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0063</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="20">
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0054</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="22">
@@ -1727,31 +1727,31 @@
         <v>-0.0659</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0242</v>
+        <v>-0.0157</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0661</v>
+        <v>-0.0141</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0699</v>
+        <v>-0.0501</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0599</v>
+        <v>-0.2203</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0547</v>
+        <v>-0.2158</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.054</v>
+        <v>-0.2139</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1083</v>
+        <v>-0.2669</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.0687</v>
+        <v>-0.2234</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.3375</v>
+        <v>-6.5828</v>
       </c>
     </row>
     <row r="24">
@@ -1836,28 +1836,28 @@
         <v>-0.0932</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0549</v>
+        <v>-0.0552</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0298</v>
+        <v>-0.0302</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0295</v>
+        <v>-0.0299</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0232</v>
+        <v>-0.0237</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.0001</v>
+        <v>-0.0003</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.0071</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="26">
@@ -1939,31 +1939,31 @@
         <v>-0.1042</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.292</v>
+        <v>-0.2924</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2628</v>
+        <v>-0.2645</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.106</v>
+        <v>-0.1078</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0581</v>
+        <v>-0.0601</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0926</v>
+        <v>-0.0955</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0687</v>
+        <v>-0.0716</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0308</v>
+        <v>-0.0334</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0116</v>
+        <v>-0.0142</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0725</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="28">
@@ -2151,31 +2151,31 @@
         <v>-0.2545</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.6738</v>
+        <v>-1.1215</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.363</v>
+        <v>-0.834</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.119</v>
+        <v>-0.6318</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6862</v>
+        <v>-1.2479</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.8195</v>
+        <v>-1.3453</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5642</v>
+        <v>-1.0426</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3704</v>
+        <v>-0.8006</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.0909</v>
+        <v>-0.4689</v>
       </c>
       <c r="X31" t="n">
-        <v>-70.6471</v>
+        <v>-72.0796</v>
       </c>
     </row>
     <row r="32">
@@ -2257,31 +2257,31 @@
         <v>28284.5</v>
       </c>
       <c r="P33" t="n">
-        <v>28622.474</v>
+        <v>28521.5094</v>
       </c>
       <c r="Q33" t="n">
-        <v>28967.3369</v>
+        <v>28783.7326</v>
       </c>
       <c r="R33" t="n">
-        <v>29324.412</v>
+        <v>29054.2258</v>
       </c>
       <c r="S33" t="n">
-        <v>29688.2716</v>
+        <v>29343.8816</v>
       </c>
       <c r="T33" t="n">
-        <v>30043.4679</v>
+        <v>29655.9272</v>
       </c>
       <c r="U33" t="n">
-        <v>30393.654</v>
+        <v>29972.2086</v>
       </c>
       <c r="V33" t="n">
-        <v>30731.3149</v>
+        <v>30298.979</v>
       </c>
       <c r="W33" t="n">
-        <v>31069.1846</v>
+        <v>30607.7972</v>
       </c>
       <c r="X33" t="n">
-        <v>31411.9599</v>
+        <v>30918.9351</v>
       </c>
     </row>
     <row r="34">
@@ -2363,31 +2363,31 @@
         <v>-0.1094</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.2106</v>
+        <v>-0.2544</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0107</v>
+        <v>-0.0547</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0152</v>
+        <v>-0.0286</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3049</v>
+        <v>-0.3518</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1896</v>
+        <v>-0.2338</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0365</v>
+        <v>-0.0771</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0876</v>
+        <v>-0.128</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0072</v>
+        <v>-0.0304</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.3151</v>
+        <v>-6.4464</v>
       </c>
     </row>
     <row r="36">
@@ -2469,31 +2469,31 @@
         <v>0.0055</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0041</v>
+        <v>0.0103</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0042</v>
+        <v>0.0105</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0043</v>
+        <v>0.0106</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0043</v>
+        <v>0.0107</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0044</v>
+        <v>0.0106</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0044</v>
+        <v>0.0106</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0045</v>
+        <v>0.0105</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0045</v>
+        <v>0.0104</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0045</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="38">
@@ -2578,16 +2578,16 @@
         <v>-0.105</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1019</v>
+        <v>-0.1023</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.0998</v>
+        <v>-0.1004</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0967</v>
+        <v>-0.0976</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0937</v>
+        <v>-0.0948</v>
       </c>
       <c r="U39" t="n">
         <v>-0.001</v>
@@ -2596,7 +2596,7 @@
         <v>-0.001</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.0009</v>
+        <v>-0.001</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -2787,31 +2787,31 @@
         <v>0.0936</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1557</v>
+        <v>-0.069</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0437</v>
+        <v>-0.277</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.0625</v>
+        <v>-0.2961</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2326</v>
+        <v>0.0014</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1211</v>
+        <v>-0.1108</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0292</v>
+        <v>-0.2602</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0161</v>
+        <v>-0.2099</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1944</v>
+        <v>-0.0235</v>
       </c>
       <c r="X43" t="n">
-        <v>-37.1192</v>
+        <v>-37.8912</v>
       </c>
     </row>
     <row r="44">
@@ -2893,31 +2893,31 @@
         <v>-0.02</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.016</v>
+        <v>-0.0156</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0085</v>
+        <v>-0.0076</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0083</v>
+        <v>0.0097</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0225</v>
+        <v>0.0245</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0022</v>
+        <v>0.0045</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0023</v>
+        <v>0.005</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0074</v>
+        <v>0.0106</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0118</v>
+        <v>0.0155</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0729</v>
+        <v>0.0778</v>
       </c>
     </row>
     <row r="46">
@@ -2999,31 +2999,31 @@
         <v>0.1087</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0277</v>
+        <v>0.0221</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0275</v>
+        <v>-0.039</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0972</v>
+        <v>0.0807</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.006</v>
+        <v>-0.0288</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0198</v>
+        <v>-0.0428</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0153</v>
+        <v>-0.038</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.0077</v>
+        <v>-0.03</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0047</v>
+        <v>-0.017</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.8938</v>
+        <v>-0.9285</v>
       </c>
     </row>
     <row r="48">
@@ -3105,31 +3105,31 @@
         <v>0.2383</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2312</v>
+        <v>0.2549</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1473</v>
+        <v>0.1959</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1108</v>
+        <v>0.172</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0689</v>
+        <v>0.142</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.0054</v>
+        <v>0.0786</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0223</v>
+        <v>0.1177</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0307</v>
+        <v>0.1369</v>
       </c>
       <c r="W49" t="n">
-        <v>-0.022</v>
+        <v>0.0935</v>
       </c>
       <c r="X49" t="n">
-        <v>3.8316</v>
+        <v>4.0038</v>
       </c>
     </row>
     <row r="50">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="52">
@@ -3438,7 +3438,7 @@
         <v>-0.0013</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="V55" t="n">
         <v>-0.0003</v>
@@ -3529,31 +3529,31 @@
         <v>-0.0027</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0044</v>
+        <v>0.004</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0061</v>
+        <v>0.0053</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0057</v>
+        <v>0.0046</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0062</v>
+        <v>0.0048</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0063</v>
+        <v>0.0047</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0049</v>
+        <v>0.0032</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0024</v>
+        <v>0.0005</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0013</v>
+        <v>-0.0006</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.0712</v>
+        <v>-0.0742</v>
       </c>
     </row>
     <row r="58">
@@ -3741,31 +3741,31 @@
         <v>-2.4563</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>-3.775</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>-3.466</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>-2.995</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>-2.742</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>-2.485</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>-2.262</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>-2.042</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>-1.864</v>
       </c>
     </row>
     <row r="62">
@@ -3850,22 +3850,22 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -3953,31 +3953,31 @@
         <v>-0.0109</v>
       </c>
       <c r="P65" t="n">
-        <v>0.1024</v>
+        <v>-0.1008</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0004</v>
+        <v>-0.2084</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.0006</v>
+        <v>-0.2089</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.0006</v>
+        <v>-0.2124</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.0006</v>
+        <v>-0.208</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.0006</v>
+        <v>-0.2013</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.0005</v>
+        <v>-0.1973</v>
       </c>
       <c r="W65" t="n">
-        <v>1.8371</v>
+        <v>1.6471</v>
       </c>
       <c r="X65" t="n">
-        <v>-1.9534</v>
+        <v>-2.6195</v>
       </c>
     </row>
     <row r="66">
@@ -4059,31 +4059,31 @@
         <v>-0.0031</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0005</v>
+        <v>-0.0089</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0005</v>
+        <v>-0.0083</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0005</v>
+        <v>-0.0064</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0005</v>
+        <v>-0.0052</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0005</v>
+        <v>-0.0022</v>
       </c>
       <c r="U67" t="n">
-        <v>0.0005</v>
+        <v>0.0007</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0004</v>
+        <v>0.0047</v>
       </c>
       <c r="W67" t="n">
-        <v>0.628</v>
+        <v>0.6324</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.6247</v>
+        <v>-0.6233</v>
       </c>
     </row>
     <row r="68">
@@ -4165,31 +4165,31 @@
         <v>0.0102</v>
       </c>
       <c r="P69" t="n">
-        <v>0.036</v>
+        <v>0.0053</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0592</v>
+        <v>-0.003</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0558</v>
+        <v>-0.038</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0428</v>
+        <v>-0.0818</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0149</v>
+        <v>-0.1107</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.0104</v>
+        <v>-0.1357</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.0075</v>
+        <v>-0.1314</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0218</v>
+        <v>-0.0995</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.0348</v>
+        <v>-0.2308</v>
       </c>
     </row>
     <row r="70">
@@ -4271,31 +4271,31 @@
         <v>-0.0438</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.0973</v>
+        <v>-0.0511</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.0743</v>
+        <v>0.0204</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0467</v>
+        <v>0.0726</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.0472</v>
+        <v>0.0927</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.0464</v>
+        <v>0.1158</v>
       </c>
       <c r="U71" t="n">
-        <v>-0.045</v>
+        <v>0.139</v>
       </c>
       <c r="V71" t="n">
-        <v>-0.0443</v>
+        <v>0.1602</v>
       </c>
       <c r="W71" t="n">
-        <v>-0.064</v>
+        <v>0.1606</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0715</v>
+        <v>0.4071</v>
       </c>
     </row>
     <row r="72">
@@ -4380,28 +4380,28 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="74">
@@ -4483,31 +4483,31 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="76">
@@ -4613,7 +4613,7 @@
         <v>-0.0053</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="78">
@@ -4695,31 +4695,31 @@
         <v>0.1071</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1045</v>
+        <v>0.0646</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.1021</v>
+        <v>0.0218</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0997</v>
+        <v>-0.0203</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0036</v>
+        <v>-0.164</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.0034</v>
+        <v>-0.1645</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.0034</v>
+        <v>-0.1632</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.0033</v>
+        <v>-0.162</v>
       </c>
       <c r="W79" t="n">
-        <v>6.236</v>
+        <v>6.0813</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.1405</v>
+        <v>-0.3857</v>
       </c>
     </row>
     <row r="80">
@@ -4804,28 +4804,28 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="82">
@@ -4907,31 +4907,31 @@
         <v>-0.0007</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.0015</v>
+        <v>-0.0019</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.0013</v>
+        <v>-0.003</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.0012</v>
+        <v>-0.003</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.0011</v>
+        <v>-0.0031</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.001</v>
+        <v>-0.0038</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.001</v>
+        <v>-0.0039</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.001</v>
+        <v>-0.0036</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0662</v>
+        <v>0.0636</v>
       </c>
       <c r="X83" t="n">
-        <v>-0.0087</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="84">
@@ -5119,31 +5119,31 @@
         <v>0.0184</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.0019</v>
+        <v>-0.4495</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1226</v>
+        <v>-0.3483</v>
       </c>
       <c r="R87" t="n">
-        <v>0.143</v>
+        <v>-0.3698</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1229</v>
+        <v>-0.4388</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0061</v>
+        <v>-0.5197</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0312</v>
+        <v>-0.5097</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0269</v>
+        <v>-0.457</v>
       </c>
       <c r="W87" t="n">
-        <v>50.6734</v>
+        <v>50.2955</v>
       </c>
       <c r="X87" t="n">
-        <v>-44.3683</v>
+        <v>-45.8008</v>
       </c>
     </row>
     <row r="88">
@@ -5225,31 +5225,31 @@
         <v>7.7756</v>
       </c>
       <c r="P89" t="n">
-        <v>7.8685</v>
+        <v>-93.0961</v>
       </c>
       <c r="Q89" t="n">
-        <v>7.9633</v>
+        <v>-175.6411</v>
       </c>
       <c r="R89" t="n">
-        <v>8.0615</v>
+        <v>-262.1247</v>
       </c>
       <c r="S89" t="n">
-        <v>8.1615</v>
+        <v>-336.2285</v>
       </c>
       <c r="T89" t="n">
-        <v>8.2591</v>
+        <v>-379.2816</v>
       </c>
       <c r="U89" t="n">
-        <v>8.3554</v>
+        <v>-413.09</v>
       </c>
       <c r="V89" t="n">
-        <v>8.4482</v>
+        <v>-423.8877</v>
       </c>
       <c r="W89" t="n">
-        <v>8.5411</v>
+        <v>-452.8462</v>
       </c>
       <c r="X89" t="n">
-        <v>8.6353</v>
+        <v>-484.3895</v>
       </c>
     </row>
     <row r="90">
@@ -5331,31 +5331,31 @@
         <v>0.0097</v>
       </c>
       <c r="P91" t="n">
-        <v>0.1411</v>
+        <v>0.0973</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.0001</v>
+        <v>-0.0441</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.0001</v>
+        <v>-0.044</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.0001</v>
+        <v>-0.0471</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.0001</v>
+        <v>-0.0443</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.0002</v>
+        <v>-0.0408</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.0002</v>
+        <v>-0.0406</v>
       </c>
       <c r="W91" t="n">
-        <v>1.7038</v>
+        <v>1.6662</v>
       </c>
       <c r="X91" t="n">
-        <v>-1.8413</v>
+        <v>-1.9726</v>
       </c>
     </row>
     <row r="92">
@@ -5437,31 +5437,31 @@
         <v>0.0014</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="94">
@@ -5546,16 +5546,16 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -5755,31 +5755,31 @@
         <v>-0.006</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.2055</v>
+        <v>-0.4302</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>-0.2333</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>-0.2336</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.0001</v>
+        <v>-0.2313</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>-0.2319</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>-0.231</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>-0.2259</v>
       </c>
       <c r="W99" t="n">
-        <v>41.8903</v>
+        <v>41.6724</v>
       </c>
       <c r="X99" t="n">
-        <v>-41.593</v>
+        <v>-42.365</v>
       </c>
     </row>
     <row r="100">
@@ -5861,31 +5861,31 @@
         <v>0.0002</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0002</v>
+        <v>0.0006</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0002</v>
+        <v>0.0011</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0002</v>
+        <v>0.0016</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0002</v>
+        <v>0.0022</v>
       </c>
       <c r="T101" t="n">
-        <v>0.0002</v>
+        <v>0.0025</v>
       </c>
       <c r="U101" t="n">
-        <v>0.0002</v>
+        <v>0.0029</v>
       </c>
       <c r="V101" t="n">
-        <v>0.0002</v>
+        <v>0.0034</v>
       </c>
       <c r="W101" t="n">
-        <v>-0.0002</v>
+        <v>0.0034</v>
       </c>
       <c r="X101" t="n">
-        <v>-0.0002</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="102">
@@ -5967,31 +5967,31 @@
         <v>-0.0419</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0089</v>
+        <v>-0.0145</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0036</v>
+        <v>-0.0079</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0025</v>
+        <v>-0.014</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0415</v>
+        <v>0.0187</v>
       </c>
       <c r="T103" t="n">
-        <v>0.009</v>
+        <v>-0.0141</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.0039</v>
+        <v>-0.0266</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.0029</v>
+        <v>-0.0252</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0028</v>
+        <v>-0.0189</v>
       </c>
       <c r="X103" t="n">
-        <v>0.003</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="104">
@@ -6073,31 +6073,31 @@
         <v>0.069</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0682</v>
+        <v>0.092</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.0338</v>
+        <v>0.0823</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0334</v>
+        <v>0.0946</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0331</v>
+        <v>0.1062</v>
       </c>
       <c r="T105" t="n">
-        <v>0.0328</v>
+        <v>0.1168</v>
       </c>
       <c r="U105" t="n">
-        <v>0.0324</v>
+        <v>0.1279</v>
       </c>
       <c r="V105" t="n">
-        <v>0.0321</v>
+        <v>0.1383</v>
       </c>
       <c r="W105" t="n">
-        <v>-0.0197</v>
+        <v>0.0958</v>
       </c>
       <c r="X105" t="n">
-        <v>-0.0802</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="106">
@@ -6203,7 +6203,7 @@
         <v>-0.0068</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="108">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="T111" t="n">
         <v>0</v>
@@ -6497,31 +6497,31 @@
         <v>-0.0015</v>
       </c>
       <c r="P113" t="n">
-        <v>0.0001</v>
+        <v>-0.0003</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="S113" t="n">
-        <v>0.0003</v>
+        <v>-0.0011</v>
       </c>
       <c r="T113" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0719</v>
+        <v>0.0699</v>
       </c>
       <c r="X113" t="n">
-        <v>-0.0109</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="114">

--- a/results/04-2024/contributions-comparison-04-2024.xlsx
+++ b/results/04-2024/contributions-comparison-04-2024.xlsx
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0051</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="4">
@@ -773,31 +773,31 @@
         <v>310.9897</v>
       </c>
       <c r="P5" t="n">
-        <v>311.58</v>
+        <v>315.355</v>
       </c>
       <c r="Q5" t="n">
-        <v>313.653</v>
+        <v>317.119</v>
       </c>
       <c r="R5" t="n">
-        <v>315.562</v>
+        <v>318.802</v>
       </c>
       <c r="S5" t="n">
-        <v>317.539</v>
+        <v>320.534</v>
       </c>
       <c r="T5" t="n">
-        <v>319.487</v>
+        <v>322.229</v>
       </c>
       <c r="U5" t="n">
-        <v>321.422</v>
+        <v>323.907</v>
       </c>
       <c r="V5" t="n">
-        <v>323.328</v>
+        <v>325.59</v>
       </c>
       <c r="W5" t="n">
-        <v>325.189</v>
+        <v>327.231</v>
       </c>
       <c r="X5" t="n">
-        <v>327.004</v>
+        <v>328.868</v>
       </c>
     </row>
     <row r="6">
@@ -882,25 +882,25 @@
         <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0671</v>
+        <v>-0.0669</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0292</v>
+        <v>-0.029</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0283</v>
+        <v>-0.028</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0267</v>
+        <v>-0.0264</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.026</v>
+        <v>-0.0257</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0039</v>
+        <v>-0.0038</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0026</v>
       </c>
       <c r="X7" t="n">
         <v>-0.0022</v>
@@ -985,31 +985,31 @@
         <v>-0.2668</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5631</v>
+        <v>-0.3599</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.2754</v>
+        <v>-0.0673</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.2921</v>
+        <v>-0.0838</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.6339</v>
+        <v>-0.4221</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.5056</v>
+        <v>-0.2982</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.332</v>
+        <v>-0.1313</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.3637</v>
+        <v>-0.167</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.296</v>
+        <v>-0.106</v>
       </c>
       <c r="X9" t="n">
-        <v>-32.0709</v>
+        <v>-31.4048</v>
       </c>
     </row>
     <row r="10">
@@ -1091,31 +1091,31 @@
         <v>0.1561</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1297</v>
+        <v>-0.1203</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.247</v>
+        <v>-0.2381</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2305</v>
+        <v>-0.2235</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2896</v>
+        <v>-0.2839</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2222</v>
+        <v>-0.2195</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1704</v>
+        <v>-0.1707</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0312</v>
+        <v>-0.0354</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1097</v>
+        <v>-0.1141</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.4258</v>
+        <v>-0.4273</v>
       </c>
     </row>
     <row r="12">
@@ -1197,31 +1197,31 @@
         <v>-0.2224</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.214</v>
+        <v>-0.1833</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0229</v>
+        <v>0.0393</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0949</v>
+        <v>-0.0011</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0694</v>
+        <v>0.0551</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0808</v>
+        <v>0.0448</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0931</v>
+        <v>0.0321</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.0754</v>
+        <v>0.0484</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0293</v>
+        <v>0.092</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.2202</v>
+        <v>-5.0242</v>
       </c>
     </row>
     <row r="14">
@@ -1303,31 +1303,31 @@
         <v>0.2014</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1562</v>
+        <v>0.11</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3677</v>
+        <v>0.273</v>
       </c>
       <c r="R15" t="n">
-        <v>0.328</v>
+        <v>0.2087</v>
       </c>
       <c r="S15" t="n">
-        <v>0.006</v>
+        <v>-0.1338</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0105</v>
+        <v>-0.1517</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06</v>
+        <v>-0.1241</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0872</v>
+        <v>-0.1174</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1572</v>
+        <v>-0.0675</v>
       </c>
       <c r="X15" t="n">
-        <v>7.7984</v>
+        <v>7.4628</v>
       </c>
     </row>
     <row r="16">
@@ -1409,31 +1409,31 @@
         <v>-0.0373</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0358</v>
+        <v>-0.0357</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0345</v>
+        <v>-0.0344</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0226</v>
+        <v>-0.0224</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0154</v>
+        <v>-0.0152</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.014</v>
+        <v>-0.0138</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0141</v>
+        <v>-0.0139</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0132</v>
+        <v>-0.0129</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0145</v>
+        <v>-0.0143</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.01</v>
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="18">
@@ -1515,31 +1515,31 @@
         <v>-0.062</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0489</v>
+        <v>-0.0488</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0436</v>
+        <v>-0.0433</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0261</v>
+        <v>-0.0258</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0106</v>
+        <v>-0.0103</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0101</v>
+        <v>-0.0098</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0086</v>
+        <v>-0.0083</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0078</v>
+        <v>-0.0075</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.0072</v>
+        <v>-0.0069</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0065</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="20">
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0058</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="22">
@@ -1727,31 +1727,31 @@
         <v>-0.0659</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0157</v>
+        <v>0.0242</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0141</v>
+        <v>0.0661</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0501</v>
+        <v>0.0699</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.2203</v>
+        <v>-0.0599</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.2158</v>
+        <v>-0.0547</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.2139</v>
+        <v>-0.054</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.2669</v>
+        <v>-0.1083</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.2234</v>
+        <v>-0.0687</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.5828</v>
+        <v>-6.3375</v>
       </c>
     </row>
     <row r="24">
@@ -1836,28 +1836,28 @@
         <v>-0.0932</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0552</v>
+        <v>-0.0549</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.0302</v>
+        <v>-0.0298</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0299</v>
+        <v>-0.0295</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0237</v>
+        <v>-0.0232</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.0003</v>
+        <v>-0.0001</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.0074</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="26">
@@ -1939,31 +1939,31 @@
         <v>-0.1042</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.2924</v>
+        <v>-0.292</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2645</v>
+        <v>-0.2628</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1078</v>
+        <v>-0.106</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0601</v>
+        <v>-0.0581</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0955</v>
+        <v>-0.0926</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0716</v>
+        <v>-0.0687</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0334</v>
+        <v>-0.0308</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0142</v>
+        <v>-0.0116</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0762</v>
+        <v>-0.0725</v>
       </c>
     </row>
     <row r="28">
@@ -2151,31 +2151,31 @@
         <v>-0.2545</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.1215</v>
+        <v>-0.6738</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.834</v>
+        <v>-0.363</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6318</v>
+        <v>-0.119</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.2479</v>
+        <v>-0.6862</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.3453</v>
+        <v>-0.8195</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.0426</v>
+        <v>-0.5642</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.8006</v>
+        <v>-0.3704</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.4689</v>
+        <v>-0.0909</v>
       </c>
       <c r="X31" t="n">
-        <v>-72.0796</v>
+        <v>-70.6471</v>
       </c>
     </row>
     <row r="32">
@@ -2257,31 +2257,31 @@
         <v>28284.5</v>
       </c>
       <c r="P33" t="n">
-        <v>28521.5094</v>
+        <v>28622.474</v>
       </c>
       <c r="Q33" t="n">
-        <v>28783.7326</v>
+        <v>28967.3369</v>
       </c>
       <c r="R33" t="n">
-        <v>29054.2258</v>
+        <v>29324.412</v>
       </c>
       <c r="S33" t="n">
-        <v>29343.8816</v>
+        <v>29688.2716</v>
       </c>
       <c r="T33" t="n">
-        <v>29655.9272</v>
+        <v>30043.4679</v>
       </c>
       <c r="U33" t="n">
-        <v>29972.2086</v>
+        <v>30393.654</v>
       </c>
       <c r="V33" t="n">
-        <v>30298.979</v>
+        <v>30731.3149</v>
       </c>
       <c r="W33" t="n">
-        <v>30607.7972</v>
+        <v>31069.1846</v>
       </c>
       <c r="X33" t="n">
-        <v>30918.9351</v>
+        <v>31411.9599</v>
       </c>
     </row>
     <row r="34">
@@ -2363,31 +2363,31 @@
         <v>-0.1094</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.2544</v>
+        <v>-0.2106</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0547</v>
+        <v>-0.0107</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.0286</v>
+        <v>0.0152</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3518</v>
+        <v>-0.3049</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.2338</v>
+        <v>-0.1896</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0771</v>
+        <v>-0.0365</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.128</v>
+        <v>-0.0876</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0304</v>
+        <v>0.0072</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.4464</v>
+        <v>-6.3151</v>
       </c>
     </row>
     <row r="36">
@@ -2469,31 +2469,31 @@
         <v>0.0055</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0103</v>
+        <v>0.0041</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0105</v>
+        <v>0.0042</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0106</v>
+        <v>0.0043</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0107</v>
+        <v>0.0043</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0106</v>
+        <v>0.0044</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0106</v>
+        <v>0.0044</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0105</v>
+        <v>0.0045</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0104</v>
+        <v>0.0045</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0103</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="38">
@@ -2578,16 +2578,16 @@
         <v>-0.105</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1023</v>
+        <v>-0.1019</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.1004</v>
+        <v>-0.0998</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0976</v>
+        <v>-0.0967</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0948</v>
+        <v>-0.0937</v>
       </c>
       <c r="U39" t="n">
         <v>-0.001</v>
@@ -2596,7 +2596,7 @@
         <v>-0.001</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -2787,31 +2787,31 @@
         <v>0.0936</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.069</v>
+        <v>0.1557</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.277</v>
+        <v>-0.0437</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.2961</v>
+        <v>-0.0625</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0014</v>
+        <v>0.2326</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.1108</v>
+        <v>0.1211</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.2602</v>
+        <v>-0.0292</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.2099</v>
+        <v>0.0161</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.0235</v>
+        <v>0.1944</v>
       </c>
       <c r="X43" t="n">
-        <v>-37.8912</v>
+        <v>-37.1192</v>
       </c>
     </row>
     <row r="44">
@@ -2893,31 +2893,31 @@
         <v>-0.02</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.0156</v>
+        <v>-0.016</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0076</v>
+        <v>-0.0085</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0097</v>
+        <v>0.0083</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0245</v>
+        <v>0.0225</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0045</v>
+        <v>0.0022</v>
       </c>
       <c r="U45" t="n">
-        <v>0.005</v>
+        <v>0.0023</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0106</v>
+        <v>0.0074</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0155</v>
+        <v>0.0118</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0778</v>
+        <v>0.0729</v>
       </c>
     </row>
     <row r="46">
@@ -2999,31 +2999,31 @@
         <v>0.1087</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0221</v>
+        <v>0.0277</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.039</v>
+        <v>-0.0275</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0807</v>
+        <v>0.0972</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0288</v>
+        <v>-0.006</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0428</v>
+        <v>-0.0198</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.038</v>
+        <v>-0.0153</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.03</v>
+        <v>-0.0077</v>
       </c>
       <c r="W47" t="n">
-        <v>-0.017</v>
+        <v>0.0047</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.9285</v>
+        <v>-0.8938</v>
       </c>
     </row>
     <row r="48">
@@ -3105,31 +3105,31 @@
         <v>0.2383</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2549</v>
+        <v>0.2312</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1959</v>
+        <v>0.1473</v>
       </c>
       <c r="R49" t="n">
-        <v>0.172</v>
+        <v>0.1108</v>
       </c>
       <c r="S49" t="n">
-        <v>0.142</v>
+        <v>0.0689</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0786</v>
+        <v>-0.0054</v>
       </c>
       <c r="U49" t="n">
-        <v>0.1177</v>
+        <v>0.0223</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1369</v>
+        <v>0.0307</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0935</v>
+        <v>-0.022</v>
       </c>
       <c r="X49" t="n">
-        <v>4.0038</v>
+        <v>3.8316</v>
       </c>
     </row>
     <row r="50">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0067</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="52">
@@ -3438,7 +3438,7 @@
         <v>-0.0013</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
       <c r="V55" t="n">
         <v>-0.0003</v>
@@ -3529,31 +3529,31 @@
         <v>-0.0027</v>
       </c>
       <c r="P57" t="n">
-        <v>0.004</v>
+        <v>0.0044</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0053</v>
+        <v>0.0061</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0046</v>
+        <v>0.0057</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0048</v>
+        <v>0.0062</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0032</v>
+        <v>0.0049</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0005</v>
+        <v>0.0024</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.0006</v>
+        <v>0.0013</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.0742</v>
+        <v>-0.0712</v>
       </c>
     </row>
     <row r="58">
@@ -3741,31 +3741,31 @@
         <v>-2.4563</v>
       </c>
       <c r="P61" t="n">
-        <v>-3.775</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>-3.466</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>-2.995</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>-2.742</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>-2.485</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>-2.262</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>-2.042</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>-1.864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3850,22 +3850,22 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -3953,31 +3953,31 @@
         <v>-0.0109</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.1008</v>
+        <v>0.1024</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.2084</v>
+        <v>-0.0004</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.2089</v>
+        <v>-0.0006</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.2124</v>
+        <v>-0.0006</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.208</v>
+        <v>-0.0006</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.2013</v>
+        <v>-0.0006</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.1973</v>
+        <v>-0.0005</v>
       </c>
       <c r="W65" t="n">
-        <v>1.6471</v>
+        <v>1.8371</v>
       </c>
       <c r="X65" t="n">
-        <v>-2.6195</v>
+        <v>-1.9534</v>
       </c>
     </row>
     <row r="66">
@@ -4059,31 +4059,31 @@
         <v>-0.0031</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0089</v>
+        <v>0.0005</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.0083</v>
+        <v>0.0005</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.0064</v>
+        <v>0.0005</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.0052</v>
+        <v>0.0005</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.0022</v>
+        <v>0.0005</v>
       </c>
       <c r="U67" t="n">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0047</v>
+        <v>0.0004</v>
       </c>
       <c r="W67" t="n">
-        <v>0.6324</v>
+        <v>0.628</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.6233</v>
+        <v>-0.6247</v>
       </c>
     </row>
     <row r="68">
@@ -4165,31 +4165,31 @@
         <v>0.0102</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0053</v>
+        <v>0.036</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.003</v>
+        <v>0.0592</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.038</v>
+        <v>0.0558</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.0818</v>
+        <v>0.0428</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.1107</v>
+        <v>0.0149</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.1357</v>
+        <v>-0.0104</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.1314</v>
+        <v>-0.0075</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.0995</v>
+        <v>0.0218</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.2308</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="70">
@@ -4271,31 +4271,31 @@
         <v>-0.0438</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.0511</v>
+        <v>-0.0973</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0204</v>
+        <v>-0.0743</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0726</v>
+        <v>-0.0467</v>
       </c>
       <c r="S71" t="n">
-        <v>0.0927</v>
+        <v>-0.0472</v>
       </c>
       <c r="T71" t="n">
-        <v>0.1158</v>
+        <v>-0.0464</v>
       </c>
       <c r="U71" t="n">
-        <v>0.139</v>
+        <v>-0.045</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1602</v>
+        <v>-0.0443</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1606</v>
+        <v>-0.064</v>
       </c>
       <c r="X71" t="n">
-        <v>0.4071</v>
+        <v>0.0715</v>
       </c>
     </row>
     <row r="72">
@@ -4380,28 +4380,28 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4483,31 +4483,31 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4613,7 +4613,7 @@
         <v>-0.0053</v>
       </c>
       <c r="X77" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4695,31 +4695,31 @@
         <v>0.1071</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0646</v>
+        <v>0.1045</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0218</v>
+        <v>0.1021</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0203</v>
+        <v>0.0997</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.164</v>
+        <v>-0.0036</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.1645</v>
+        <v>-0.0034</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.1632</v>
+        <v>-0.0034</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.162</v>
+        <v>-0.0033</v>
       </c>
       <c r="W79" t="n">
-        <v>6.0813</v>
+        <v>6.236</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.3857</v>
+        <v>-0.1405</v>
       </c>
     </row>
     <row r="80">
@@ -4804,28 +4804,28 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4907,31 +4907,31 @@
         <v>-0.0007</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.0019</v>
+        <v>-0.0015</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.003</v>
+        <v>-0.0013</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.003</v>
+        <v>-0.0012</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.0031</v>
+        <v>-0.0011</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.0038</v>
+        <v>-0.001</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.0039</v>
+        <v>-0.001</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.0036</v>
+        <v>-0.001</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0636</v>
+        <v>0.0662</v>
       </c>
       <c r="X83" t="n">
-        <v>-0.0124</v>
+        <v>-0.0087</v>
       </c>
     </row>
     <row r="84">
@@ -5119,31 +5119,31 @@
         <v>0.0184</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.4495</v>
+        <v>-0.0019</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.3483</v>
+        <v>0.1226</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.3698</v>
+        <v>0.143</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.4388</v>
+        <v>0.1229</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.5197</v>
+        <v>0.0061</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.5097</v>
+        <v>-0.0312</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.457</v>
+        <v>-0.0269</v>
       </c>
       <c r="W87" t="n">
-        <v>50.2955</v>
+        <v>50.6734</v>
       </c>
       <c r="X87" t="n">
-        <v>-45.8008</v>
+        <v>-44.3683</v>
       </c>
     </row>
     <row r="88">
@@ -5225,31 +5225,31 @@
         <v>7.7756</v>
       </c>
       <c r="P89" t="n">
-        <v>-93.0961</v>
+        <v>7.8685</v>
       </c>
       <c r="Q89" t="n">
-        <v>-175.6411</v>
+        <v>7.9633</v>
       </c>
       <c r="R89" t="n">
-        <v>-262.1247</v>
+        <v>8.0615</v>
       </c>
       <c r="S89" t="n">
-        <v>-336.2285</v>
+        <v>8.1615</v>
       </c>
       <c r="T89" t="n">
-        <v>-379.2816</v>
+        <v>8.2591</v>
       </c>
       <c r="U89" t="n">
-        <v>-413.09</v>
+        <v>8.3554</v>
       </c>
       <c r="V89" t="n">
-        <v>-423.8877</v>
+        <v>8.4482</v>
       </c>
       <c r="W89" t="n">
-        <v>-452.8462</v>
+        <v>8.5411</v>
       </c>
       <c r="X89" t="n">
-        <v>-484.3895</v>
+        <v>8.6353</v>
       </c>
     </row>
     <row r="90">
@@ -5331,31 +5331,31 @@
         <v>0.0097</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0973</v>
+        <v>0.1411</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.0441</v>
+        <v>-0.0001</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.044</v>
+        <v>-0.0001</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.0471</v>
+        <v>-0.0001</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.0443</v>
+        <v>-0.0001</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.0408</v>
+        <v>-0.0002</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.0406</v>
+        <v>-0.0002</v>
       </c>
       <c r="W91" t="n">
-        <v>1.6662</v>
+        <v>1.7038</v>
       </c>
       <c r="X91" t="n">
-        <v>-1.9726</v>
+        <v>-1.8413</v>
       </c>
     </row>
     <row r="92">
@@ -5437,31 +5437,31 @@
         <v>0.0014</v>
       </c>
       <c r="P93" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5546,16 +5546,16 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.0006</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.0009</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.0011</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -5755,31 +5755,31 @@
         <v>-0.006</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.4302</v>
+        <v>-0.2055</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.2333</v>
+        <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.2336</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.2313</v>
+        <v>-0.0001</v>
       </c>
       <c r="T99" t="n">
-        <v>-0.2319</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>-0.231</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>-0.2259</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>41.6724</v>
+        <v>41.8903</v>
       </c>
       <c r="X99" t="n">
-        <v>-42.365</v>
+        <v>-41.593</v>
       </c>
     </row>
     <row r="100">
@@ -5861,31 +5861,31 @@
         <v>0.0002</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0006</v>
+        <v>0.0002</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0011</v>
+        <v>0.0002</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0016</v>
+        <v>0.0002</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0022</v>
+        <v>0.0002</v>
       </c>
       <c r="T101" t="n">
-        <v>0.0025</v>
+        <v>0.0002</v>
       </c>
       <c r="U101" t="n">
-        <v>0.0029</v>
+        <v>0.0002</v>
       </c>
       <c r="V101" t="n">
-        <v>0.0034</v>
+        <v>0.0002</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0034</v>
+        <v>-0.0002</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0047</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="102">
@@ -5967,31 +5967,31 @@
         <v>-0.0419</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0145</v>
+        <v>-0.0089</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.0079</v>
+        <v>0.0036</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.014</v>
+        <v>0.0025</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0187</v>
+        <v>0.0415</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.0141</v>
+        <v>0.009</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.0266</v>
+        <v>-0.0039</v>
       </c>
       <c r="V103" t="n">
-        <v>-0.0252</v>
+        <v>-0.0029</v>
       </c>
       <c r="W103" t="n">
-        <v>-0.0189</v>
+        <v>0.0028</v>
       </c>
       <c r="X103" t="n">
-        <v>-0.0317</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="104">
@@ -6073,31 +6073,31 @@
         <v>0.069</v>
       </c>
       <c r="P105" t="n">
-        <v>0.092</v>
+        <v>0.0682</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.0823</v>
+        <v>0.0338</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0946</v>
+        <v>0.0334</v>
       </c>
       <c r="S105" t="n">
-        <v>0.1062</v>
+        <v>0.0331</v>
       </c>
       <c r="T105" t="n">
-        <v>0.1168</v>
+        <v>0.0328</v>
       </c>
       <c r="U105" t="n">
-        <v>0.1279</v>
+        <v>0.0324</v>
       </c>
       <c r="V105" t="n">
-        <v>0.1383</v>
+        <v>0.0321</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0958</v>
+        <v>-0.0197</v>
       </c>
       <c r="X105" t="n">
-        <v>0.092</v>
+        <v>-0.0802</v>
       </c>
     </row>
     <row r="106">
@@ -6203,7 +6203,7 @@
         <v>-0.0068</v>
       </c>
       <c r="X107" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="T111" t="n">
         <v>0</v>
@@ -6497,31 +6497,31 @@
         <v>-0.0015</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.0008</v>
+        <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.0011</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>-0.0011</v>
+        <v>0.0003</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.0014</v>
+        <v>0.0002</v>
       </c>
       <c r="U113" t="n">
-        <v>-0.0018</v>
+        <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>-0.0018</v>
+        <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0699</v>
+        <v>0.0719</v>
       </c>
       <c r="X113" t="n">
-        <v>-0.0139</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="114">
